--- a/AppWeb/Templates/xlsx/Phones.xlsx
+++ b/AppWeb/Templates/xlsx/Phones.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="PhonesData" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">PhonesData!$A$1:$N$14</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -71,8 +68,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -161,7 +159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -170,7 +168,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -178,23 +180,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,13 +256,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="PhonesData" displayName="PhonesData" ref="A45:N58" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A45:N58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="PhonesData" displayName="PhonesData" ref="A45:N56" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="14">
     <tableColumn id="1" name=""/>
     <tableColumn id="2" name=""/>
@@ -301,282 +282,92 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.72265625" defaultRowHeight="28.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="23.73046875" defaultRowHeight="28.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="28.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="40.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="101.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="32.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="28.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="26.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="36.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="28.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="40.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="3" width="101.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="15" style="1" width="23.72"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
+      <c r="M3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="7"/>
-    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:N14"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -584,9 +375,8 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
   <tableParts>
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>